--- a/Configs/Read.xlsx
+++ b/Configs/Read.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.WPF\ScadaSystem\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5A321E-9B14-4621-8E10-083210D079B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24685" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24684" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Module</t>
   </si>
@@ -82,558 +88,188 @@
     <t>DB1.DBX1.4</t>
   </si>
   <si>
-    <t>脱脂工位开</t>
-  </si>
-  <si>
-    <t>DegreasingStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX1.5</t>
-  </si>
-  <si>
-    <t>脱脂工位关</t>
-  </si>
-  <si>
-    <t>DegreasingStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX1.6</t>
-  </si>
-  <si>
-    <t>粗洗工位开</t>
-  </si>
-  <si>
-    <t>RoughWashingStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX1.7</t>
-  </si>
-  <si>
-    <t>粗洗工位关</t>
-  </si>
-  <si>
-    <t>RoughWashingStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.0</t>
-  </si>
-  <si>
-    <t>陶化工位开</t>
-  </si>
-  <si>
-    <t>CeramicCoatingStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.1</t>
-  </si>
-  <si>
-    <t>陶化工位关</t>
-  </si>
-  <si>
-    <t>CeramicCoatingStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.2</t>
-  </si>
-  <si>
-    <t>精洗工位开</t>
-  </si>
-  <si>
-    <t>FineWashingStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.3</t>
-  </si>
-  <si>
-    <t>精洗工位关</t>
-  </si>
-  <si>
-    <t>FineWashingStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.4</t>
-  </si>
-  <si>
-    <t>水分炉工位开</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.5</t>
-  </si>
-  <si>
-    <t>水分炉工位关</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.6</t>
-  </si>
-  <si>
-    <t>冷却室工位开</t>
-  </si>
-  <si>
-    <t>CoolingRoomStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX2.7</t>
-  </si>
-  <si>
-    <t>冷却室工位关</t>
-  </si>
-  <si>
-    <t>CoolingRoomStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.0</t>
-  </si>
-  <si>
-    <t>固化炉工位开</t>
-  </si>
-  <si>
-    <t>CuringOvenStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.1</t>
-  </si>
-  <si>
-    <t>固化炉工位关</t>
-  </si>
-  <si>
-    <t>CuringOvenStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.2</t>
-  </si>
-  <si>
-    <t>输送机工位开</t>
-  </si>
-  <si>
-    <t>ConveyorStationOpen</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.3</t>
-  </si>
-  <si>
-    <t>输送机工位关</t>
-  </si>
-  <si>
-    <t>ConveyorStationClose</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.4</t>
-  </si>
-  <si>
     <t>Monitor</t>
   </si>
   <si>
-    <t>脱脂喷淋泵运行状态</t>
-  </si>
-  <si>
-    <t>DegreasingSprayPumpStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.5</t>
-  </si>
-  <si>
-    <t>脱脂排风机运行状态</t>
-  </si>
-  <si>
-    <t>DegreasingExhaustFanStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.6</t>
-  </si>
-  <si>
-    <t>粗洗喷淋泵运行状态</t>
-  </si>
-  <si>
-    <t>RoughWashSprayPumpStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX3.7</t>
-  </si>
-  <si>
-    <t>陶化喷淋泵运行状态</t>
-  </si>
-  <si>
-    <t>PhosphatingSprayPumpStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.0</t>
-  </si>
-  <si>
-    <t>陶化排风机运行状态</t>
-  </si>
-  <si>
-    <t>PhosphatingExhaustFanStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.1</t>
-  </si>
-  <si>
-    <t>精洗洗喷淋泵运行状态</t>
-  </si>
-  <si>
-    <t>FineWashSprayPumpStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.2</t>
-  </si>
-  <si>
-    <t>水分炉变频器运行状态</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceInverterStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.3</t>
-  </si>
-  <si>
-    <t>水分炉炉口风帘风机运行状态</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceAirCurtainStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.4</t>
-  </si>
-  <si>
-    <t>冷却室离心风机运行状态</t>
-  </si>
-  <si>
-    <t>CoolingChamberCentrifugalFanStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.5</t>
-  </si>
-  <si>
-    <t>固化炉变频器运行状态</t>
-  </si>
-  <si>
-    <t>CuringFurnaceInverterStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.6</t>
-  </si>
-  <si>
-    <t>固化炉炉口风帘风机运行状态</t>
-  </si>
-  <si>
-    <t>CuringFurnaceAirCurtainStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX4.7</t>
-  </si>
-  <si>
-    <t>输送机变频器电源状态</t>
-  </si>
-  <si>
-    <t>ConveyorInverterPowerStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.0</t>
-  </si>
-  <si>
-    <t>输送机变频器运行状态</t>
-  </si>
-  <si>
-    <t>ConveyorInverterRunningStatus</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.1</t>
-  </si>
-  <si>
-    <t>脱脂低液位报警</t>
-  </si>
-  <si>
-    <t>DegreasingLowLevelAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.2</t>
-  </si>
-  <si>
-    <t>粗洗喷淋泵过载报警</t>
-  </si>
-  <si>
-    <t>RoughWashPumpOverloadAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.3</t>
-  </si>
-  <si>
-    <t>粗洗低液位报警</t>
+    <t>DB1.DBX5.4</t>
+  </si>
+  <si>
+    <t>DB1.DBX5.5</t>
+  </si>
+  <si>
+    <t>DB1.DBX5.6</t>
+  </si>
+  <si>
+    <t>DB1.DBX5.7</t>
+  </si>
+  <si>
+    <t>DB1.DBX6.0</t>
+  </si>
+  <si>
+    <t>DB1.DBX6.1</t>
+  </si>
+  <si>
+    <t>DB1.DBX6.2</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>DB1.DBD104</t>
+  </si>
+  <si>
+    <t>DB1.DBD112</t>
+  </si>
+  <si>
+    <t>厂内温度</t>
+  </si>
+  <si>
+    <t>FactoryTemperature</t>
+  </si>
+  <si>
+    <t>DB1.DBD132</t>
+  </si>
+  <si>
+    <t>厂内湿度</t>
+  </si>
+  <si>
+    <t>FactoryHumidity</t>
+  </si>
+  <si>
+    <t>DB1.DBD136</t>
+  </si>
+  <si>
+    <t>柱塞磨损状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配流盘磨损状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承外圈磨损状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承内圈磨损状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动体磨损状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松靴磨损状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑靴磨损状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhosphatingPhValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1.DBD116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1.DBD100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1.DBD108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoistureFurnaceBurnerAlarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统压力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X轴振动数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y轴振动数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoughWashSprayPumpPressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴振动数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoistureFurnaceTemperatureAlarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FineWashLowLevelAlarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FineWashPumpOverloadAlarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhosphatingLowLevelAlarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhosphatingPumpOverloadAlarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RoughWashLowLevelAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.4</t>
-  </si>
-  <si>
-    <t>陶化喷淋泵过载报警</t>
-  </si>
-  <si>
-    <t>PhosphatingPumpOverloadAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.5</t>
-  </si>
-  <si>
-    <t>陶化低液位报警</t>
-  </si>
-  <si>
-    <t>PhosphatingLowLevelAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.6</t>
-  </si>
-  <si>
-    <t>精洗喷淋泵过载报警</t>
-  </si>
-  <si>
-    <t>FineWashPumpOverloadAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX5.7</t>
-  </si>
-  <si>
-    <t>精洗低液位报警</t>
-  </si>
-  <si>
-    <t>FineWashLowLevelAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.0</t>
-  </si>
-  <si>
-    <t>水分炉温度报警</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceTemperatureAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.1</t>
-  </si>
-  <si>
-    <t>水分炉燃烧机报警</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceBurnerAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.2</t>
-  </si>
-  <si>
-    <t>水分炉煤气泄漏报警</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceGasLeakAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.3</t>
-  </si>
-  <si>
-    <t>冷却室离心风机过载报警</t>
-  </si>
-  <si>
-    <t>CoolingChamberFanOverloadAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.4</t>
-  </si>
-  <si>
-    <t>固化炉温度报警</t>
-  </si>
-  <si>
-    <t>CuringFurnaceTemperatureAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.5</t>
-  </si>
-  <si>
-    <t>固化炉燃烧机报警</t>
-  </si>
-  <si>
-    <t>CuringFurnaceBurnerAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.6</t>
-  </si>
-  <si>
-    <t>固化炉煤气泄漏报警</t>
-  </si>
-  <si>
-    <t>CuringFurnaceGasLeakAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX6.7</t>
-  </si>
-  <si>
-    <t>输送机变频器故障报警</t>
-  </si>
-  <si>
-    <t>ConveyorInverterFaultAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX7.0</t>
-  </si>
-  <si>
-    <t>输送机行程报警</t>
-  </si>
-  <si>
-    <t>ConveyorTravelAlarm</t>
-  </si>
-  <si>
-    <t>DB1.DBX8.1</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>脱脂喷淋泵压力值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DegreasingSprayPumpPressure</t>
-  </si>
-  <si>
-    <t>DB1.DBD100</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>脱脂pH值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DegreasingPhValue</t>
-  </si>
-  <si>
-    <t>DB1.DBD104</t>
-  </si>
-  <si>
-    <t>粗洗喷淋泵压力值</t>
-  </si>
-  <si>
-    <t>RoughWashSprayPumpPressure</t>
-  </si>
-  <si>
-    <t>DB1.DBD108</t>
-  </si>
-  <si>
-    <t>陶化喷淋泵压力值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PhosphatingSprayPumpPressure</t>
-  </si>
-  <si>
-    <t>DB1.DBD112</t>
-  </si>
-  <si>
-    <t>陶化pH值</t>
-  </si>
-  <si>
-    <t>PhosphatingPhValue</t>
-  </si>
-  <si>
-    <t>DB1.DBD116</t>
-  </si>
-  <si>
-    <t>精洗喷淋泵压力值</t>
-  </si>
-  <si>
-    <t>FineWashSprayPumpPressure</t>
-  </si>
-  <si>
-    <t>DB1.DBD120</t>
-  </si>
-  <si>
-    <t>水分炉测量温度</t>
-  </si>
-  <si>
-    <t>MoistureFurnaceTemperature</t>
-  </si>
-  <si>
-    <t>DB1.DBD124</t>
-  </si>
-  <si>
-    <t>固化炉测量温度</t>
-  </si>
-  <si>
-    <t>CuringFurnaceTemperature</t>
-  </si>
-  <si>
-    <t>DB1DBD128</t>
-  </si>
-  <si>
-    <t>厂内温度</t>
-  </si>
-  <si>
-    <t>FactoryTemperature</t>
-  </si>
-  <si>
-    <t>DB1.DBD132</t>
-  </si>
-  <si>
-    <t>厂内湿度</t>
-  </si>
-  <si>
-    <t>FactoryHumidity</t>
-  </si>
-  <si>
-    <t>DB1.DBD136</t>
-  </si>
-  <si>
-    <t>生产计数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ProductionCount</t>
-  </si>
-  <si>
-    <t>DB1DBD129</t>
-  </si>
-  <si>
-    <t>不良计数</t>
-  </si>
-  <si>
-    <t>DefectiveCount</t>
-  </si>
-  <si>
-    <t>DB1.DBD140</t>
-  </si>
-  <si>
-    <t>生产节拍</t>
-  </si>
-  <si>
-    <t>ProductionPace</t>
-  </si>
-  <si>
-    <t>DB1.DBD144</t>
-  </si>
-  <si>
-    <t>累计报警</t>
-  </si>
-  <si>
-    <t>AccumulatedAlarms</t>
-  </si>
-  <si>
-    <t>DB1.DBD148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1.DBD137</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0."/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,151 +283,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,194 +309,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1014,253 +333,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,62 +348,25 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1648,29 +688,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1441441441441" customWidth="1"/>
-    <col min="2" max="2" width="72.8648648648649" customWidth="1"/>
-    <col min="3" max="3" width="46.0720720720721" customWidth="1"/>
-    <col min="4" max="4" width="16.954954954955" customWidth="1"/>
-    <col min="5" max="5" width="12.6306306306306" customWidth="1"/>
-    <col min="6" max="27" width="19.9459459459459" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="72.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="27" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.05" customHeight="1" spans="1:27">
+    <row r="1" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +749,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" ht="21.05" customHeight="1" spans="1:27">
+    <row r="2" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +788,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" ht="21.05" customHeight="1" spans="1:27">
+    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +827,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" ht="21.05" customHeight="1" spans="1:27">
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +866,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" ht="21.05" customHeight="1" spans="1:27">
+    <row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1865,7 +905,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" ht="21.05" customHeight="1" spans="1:27">
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1904,18 +944,18 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" ht="21.05" customHeight="1" spans="1:27">
+    <row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -1943,18 +983,18 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" ht="21.05" customHeight="1" spans="1:27">
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -1982,18 +1022,18 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" ht="21.05" customHeight="1" spans="1:27">
+    <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -2021,18 +1061,18 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" ht="21.05" customHeight="1" spans="1:27">
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
@@ -2060,18 +1100,18 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" ht="21.05" customHeight="1" spans="1:27">
+    <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -2099,18 +1139,18 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" ht="21.05" customHeight="1" spans="1:27">
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -2138,18 +1178,18 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" ht="21.05" customHeight="1" spans="1:27">
+    <row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
+      <c r="C13" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -2177,21 +1217,21 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" ht="21.05" customHeight="1" spans="1:27">
+    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2216,21 +1256,21 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" ht="21.05" customHeight="1" spans="1:27">
+    <row r="15" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2255,21 +1295,21 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" ht="21.05" customHeight="1" spans="1:27">
+    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2294,21 +1334,21 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" ht="21.05" customHeight="1" spans="1:27">
+    <row r="17" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2333,21 +1373,21 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" ht="21.05" customHeight="1" spans="1:27">
+    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2372,21 +1412,21 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" ht="21.05" customHeight="1" spans="1:27">
+    <row r="19" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2411,21 +1451,21 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" ht="21.05" customHeight="1" spans="1:27">
+    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2450,21 +1490,21 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" ht="21.05" customHeight="1" spans="1:27">
+    <row r="21" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2489,22 +1529,9 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2528,22 +1555,9 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="23" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2567,22 +1581,9 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2606,22 +1607,9 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2645,22 +1633,9 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2684,22 +1659,9 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="27" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2723,22 +1685,9 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2762,22 +1711,9 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="29" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2801,22 +1737,9 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2840,22 +1763,9 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="31" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2879,22 +1789,9 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2918,22 +1815,9 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="33" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2957,22 +1841,9 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2996,22 +1867,9 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="35" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3035,22 +1893,12 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3074,22 +1922,12 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="37" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -3113,22 +1951,12 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -3152,22 +1980,12 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="39" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3191,22 +2009,12 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3230,22 +2038,12 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="41" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3269,22 +2067,12 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3308,22 +2096,12 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="43" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -3347,22 +2125,12 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -3386,22 +2154,12 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="45" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3425,22 +2183,12 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -3464,22 +2212,12 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="47" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -3503,22 +2241,12 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -3542,22 +2270,12 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="49" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3581,22 +2299,12 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3620,22 +2328,12 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="51" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3659,22 +2357,12 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A52" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3698,22 +2386,12 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="53" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3737,22 +2415,12 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3776,22 +2444,12 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="55" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3815,22 +2473,12 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3854,22 +2502,12 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A57" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="57" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3893,22 +2531,12 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3932,22 +2560,12 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="59" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -3971,22 +2589,12 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -4010,22 +2618,12 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="61" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -4049,22 +2647,12 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A62" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -4088,22 +2676,12 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="63" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -4127,22 +2705,12 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -4166,22 +2734,12 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="65" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -4205,7 +2763,11 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" ht="21.05" customHeight="1" spans="5:27">
+    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -4230,7 +2792,11 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" ht="21.05" customHeight="1" spans="5:27">
+    <row r="67" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -4255,7 +2821,11 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" ht="21.05" customHeight="1" spans="5:27">
+    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4280,7 +2850,11 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" ht="21.05" customHeight="1" spans="5:27">
+    <row r="69" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4305,7 +2879,11 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" ht="21.05" customHeight="1" spans="5:27">
+    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -4330,7 +2908,11 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" ht="21.05" customHeight="1" spans="5:27">
+    <row r="71" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4355,7 +2937,11 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" ht="21.05" customHeight="1" spans="5:27">
+    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4380,7 +2966,11 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" ht="21.05" customHeight="1" spans="5:27">
+    <row r="73" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4405,7 +2995,11 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" ht="21.05" customHeight="1" spans="5:27">
+    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4430,7 +3024,11 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" ht="21.05" customHeight="1" spans="5:27">
+    <row r="75" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4455,7 +3053,11 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" ht="21.05" customHeight="1" spans="5:27">
+    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4480,7 +3082,11 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" ht="21.05" customHeight="1" spans="5:27">
+    <row r="77" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4505,7 +3111,11 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" ht="21.05" customHeight="1" spans="5:27">
+    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4530,7 +3140,11 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" ht="21.05" customHeight="1" spans="5:27">
+    <row r="79" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4555,7 +3169,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" ht="21.05" customHeight="1" spans="1:27">
+    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4584,7 +3198,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" ht="21.05" customHeight="1" spans="1:27">
+    <row r="81" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4613,7 +3227,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" ht="21.05" customHeight="1" spans="1:27">
+    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4642,7 +3256,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" ht="21.05" customHeight="1" spans="1:27">
+    <row r="83" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4671,7 +3285,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" ht="21.05" customHeight="1" spans="1:27">
+    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4700,7 +3314,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" ht="21.05" customHeight="1" spans="1:27">
+    <row r="85" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4729,7 +3343,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" ht="21.05" customHeight="1" spans="1:27">
+    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4758,7 +3372,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" ht="21.05" customHeight="1" spans="1:27">
+    <row r="87" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4787,7 +3401,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" ht="21.05" customHeight="1" spans="1:27">
+    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4816,7 +3430,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" ht="21.05" customHeight="1" spans="1:27">
+    <row r="89" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4845,7 +3459,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" ht="21.05" customHeight="1" spans="1:27">
+    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4874,7 +3488,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" ht="21.05" customHeight="1" spans="1:27">
+    <row r="91" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4903,7 +3517,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" ht="21.05" customHeight="1" spans="1:27">
+    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4932,7 +3546,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" ht="21.05" customHeight="1" spans="1:27">
+    <row r="93" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4961,7 +3575,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" ht="21.05" customHeight="1" spans="1:27">
+    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4990,7 +3604,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" ht="21.05" customHeight="1" spans="1:27">
+    <row r="95" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5019,7 +3633,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" ht="21.05" customHeight="1" spans="1:27">
+    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5048,7 +3662,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" ht="21.05" customHeight="1" spans="1:27">
+    <row r="97" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5077,7 +3691,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" ht="21.05" customHeight="1" spans="1:27">
+    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5106,7 +3720,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" ht="21.05" customHeight="1" spans="1:27">
+    <row r="99" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5135,7 +3749,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" ht="21.05" customHeight="1" spans="1:27">
+    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5164,7 +3778,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" ht="21.05" customHeight="1" spans="1:27">
+    <row r="101" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5193,7 +3807,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" ht="21.05" customHeight="1" spans="1:27">
+    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5222,7 +3836,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" ht="21.05" customHeight="1" spans="1:27">
+    <row r="103" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5251,7 +3865,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" ht="21.05" customHeight="1" spans="1:27">
+    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5280,7 +3894,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" ht="21.05" customHeight="1" spans="1:27">
+    <row r="105" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5309,7 +3923,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" ht="21.05" customHeight="1" spans="1:27">
+    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5338,7 +3952,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" ht="21.05" customHeight="1" spans="1:27">
+    <row r="107" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5367,7 +3981,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" ht="21.05" customHeight="1" spans="1:27">
+    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5396,7 +4010,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" ht="21.05" customHeight="1" spans="1:27">
+    <row r="109" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5425,7 +4039,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" ht="21.05" customHeight="1" spans="1:27">
+    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5454,7 +4068,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" ht="21.05" customHeight="1" spans="1:27">
+    <row r="111" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5483,7 +4097,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" ht="21.05" customHeight="1" spans="1:27">
+    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5512,7 +4126,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" ht="21.05" customHeight="1" spans="1:27">
+    <row r="113" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5541,7 +4155,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" ht="21.05" customHeight="1" spans="1:27">
+    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5570,7 +4184,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" ht="21.05" customHeight="1" spans="1:27">
+    <row r="115" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5599,7 +4213,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" ht="21.05" customHeight="1" spans="1:27">
+    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5628,7 +4242,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" ht="21.05" customHeight="1" spans="1:27">
+    <row r="117" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5657,7 +4271,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" ht="21.05" customHeight="1" spans="1:27">
+    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5686,7 +4300,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" ht="21.05" customHeight="1" spans="1:27">
+    <row r="119" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5715,7 +4329,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" ht="21.05" customHeight="1" spans="1:27">
+    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5744,7 +4358,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" ht="21.05" customHeight="1" spans="1:27">
+    <row r="121" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5773,7 +4387,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" ht="21.05" customHeight="1" spans="1:27">
+    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5802,7 +4416,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" ht="21.05" customHeight="1" spans="1:27">
+    <row r="123" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5831,7 +4445,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" ht="21.05" customHeight="1" spans="1:27">
+    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5860,7 +4474,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" ht="21.05" customHeight="1" spans="1:27">
+    <row r="125" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5889,7 +4503,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" ht="21.05" customHeight="1" spans="1:27">
+    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5918,7 +4532,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" ht="21.05" customHeight="1" spans="1:27">
+    <row r="127" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5947,7 +4561,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" ht="21.05" customHeight="1" spans="1:27">
+    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5976,7 +4590,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" ht="21.05" customHeight="1" spans="1:27">
+    <row r="129" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6005,7 +4619,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" ht="21.05" customHeight="1" spans="1:27">
+    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6034,7 +4648,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" ht="21.05" customHeight="1" spans="1:27">
+    <row r="131" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6063,7 +4677,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" ht="21.05" customHeight="1" spans="1:27">
+    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6092,7 +4706,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" ht="21.05" customHeight="1" spans="1:27">
+    <row r="133" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6121,7 +4735,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" ht="21.05" customHeight="1" spans="1:27">
+    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6150,7 +4764,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" ht="21.05" customHeight="1" spans="1:27">
+    <row r="135" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6179,7 +4793,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" ht="21.05" customHeight="1" spans="1:27">
+    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6208,7 +4822,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" ht="21.05" customHeight="1" spans="1:27">
+    <row r="137" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6237,7 +4851,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" ht="21.05" customHeight="1" spans="1:27">
+    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6266,7 +4880,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" ht="21.05" customHeight="1" spans="1:27">
+    <row r="139" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6295,7 +4909,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" ht="21.05" customHeight="1" spans="1:27">
+    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6324,7 +4938,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" ht="21.05" customHeight="1" spans="1:27">
+    <row r="141" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6353,7 +4967,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" ht="21.05" customHeight="1" spans="1:27">
+    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6382,7 +4996,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" ht="21.05" customHeight="1" spans="1:27">
+    <row r="143" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6411,7 +5025,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" ht="21.05" customHeight="1" spans="1:27">
+    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6440,7 +5054,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" ht="21.05" customHeight="1" spans="1:27">
+    <row r="145" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6469,7 +5083,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" ht="21.05" customHeight="1" spans="1:27">
+    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6498,7 +5112,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" ht="21.05" customHeight="1" spans="1:27">
+    <row r="147" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6527,7 +5141,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" ht="21.05" customHeight="1" spans="1:27">
+    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6556,7 +5170,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" ht="21.05" customHeight="1" spans="1:27">
+    <row r="149" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6585,7 +5199,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" ht="21.05" customHeight="1" spans="1:27">
+    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6614,7 +5228,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" ht="21.05" customHeight="1" spans="1:27">
+    <row r="151" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6643,7 +5257,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" ht="21.05" customHeight="1" spans="1:27">
+    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6672,7 +5286,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" ht="21.05" customHeight="1" spans="1:27">
+    <row r="153" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6701,7 +5315,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" ht="21.05" customHeight="1" spans="1:27">
+    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6730,7 +5344,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" ht="21.05" customHeight="1" spans="1:27">
+    <row r="155" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6759,7 +5373,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" ht="21.05" customHeight="1" spans="1:27">
+    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6788,7 +5402,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" ht="21.05" customHeight="1" spans="1:27">
+    <row r="157" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6817,7 +5431,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" ht="21.05" customHeight="1" spans="1:27">
+    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6846,7 +5460,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" ht="21.05" customHeight="1" spans="1:27">
+    <row r="159" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6875,7 +5489,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" ht="21.05" customHeight="1" spans="1:27">
+    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6904,7 +5518,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" ht="21.05" customHeight="1" spans="1:27">
+    <row r="161" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6933,7 +5547,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" ht="21.05" customHeight="1" spans="1:27">
+    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6962,7 +5576,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" ht="21.05" customHeight="1" spans="1:27">
+    <row r="163" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6991,7 +5605,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" ht="21.05" customHeight="1" spans="1:27">
+    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7020,7 +5634,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" ht="21.05" customHeight="1" spans="1:27">
+    <row r="165" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7049,7 +5663,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" ht="21.05" customHeight="1" spans="1:27">
+    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7078,7 +5692,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" ht="21.05" customHeight="1" spans="1:27">
+    <row r="167" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7107,7 +5721,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" ht="21.05" customHeight="1" spans="1:27">
+    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7136,7 +5750,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" ht="21.05" customHeight="1" spans="1:27">
+    <row r="169" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7165,7 +5779,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" ht="21.05" customHeight="1" spans="1:27">
+    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7194,7 +5808,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" ht="21.05" customHeight="1" spans="1:27">
+    <row r="171" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7223,7 +5837,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" ht="21.05" customHeight="1" spans="1:27">
+    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7252,7 +5866,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" ht="21.05" customHeight="1" spans="1:27">
+    <row r="173" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7281,7 +5895,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" ht="21.05" customHeight="1" spans="1:27">
+    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7310,7 +5924,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" ht="21.05" customHeight="1" spans="1:27">
+    <row r="175" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7339,7 +5953,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" ht="21.05" customHeight="1" spans="1:27">
+    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7368,7 +5982,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" ht="21.05" customHeight="1" spans="1:27">
+    <row r="177" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7397,7 +6011,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" ht="21.05" customHeight="1" spans="1:27">
+    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7426,1288 +6040,12 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
-      <c r="V179" s="2"/>
-      <c r="W179" s="2"/>
-      <c r="X179" s="2"/>
-      <c r="Y179" s="2"/>
-      <c r="Z179" s="2"/>
-      <c r="AA179" s="2"/>
-    </row>
-    <row r="180" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
-      <c r="AA180" s="2"/>
-    </row>
-    <row r="181" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2"/>
-      <c r="V181" s="2"/>
-      <c r="W181" s="2"/>
-      <c r="X181" s="2"/>
-      <c r="Y181" s="2"/>
-      <c r="Z181" s="2"/>
-      <c r="AA181" s="2"/>
-    </row>
-    <row r="182" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="2"/>
-      <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2"/>
-      <c r="V182" s="2"/>
-      <c r="W182" s="2"/>
-      <c r="X182" s="2"/>
-      <c r="Y182" s="2"/>
-      <c r="Z182" s="2"/>
-      <c r="AA182" s="2"/>
-    </row>
-    <row r="183" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2"/>
-      <c r="V183" s="2"/>
-      <c r="W183" s="2"/>
-      <c r="X183" s="2"/>
-      <c r="Y183" s="2"/>
-      <c r="Z183" s="2"/>
-      <c r="AA183" s="2"/>
-    </row>
-    <row r="184" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2"/>
-      <c r="V184" s="2"/>
-      <c r="W184" s="2"/>
-      <c r="X184" s="2"/>
-      <c r="Y184" s="2"/>
-      <c r="Z184" s="2"/>
-      <c r="AA184" s="2"/>
-    </row>
-    <row r="185" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="2"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
-      <c r="X185" s="2"/>
-      <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
-      <c r="AA185" s="2"/>
-    </row>
-    <row r="186" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="2"/>
-      <c r="R186" s="2"/>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="U186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="2"/>
-      <c r="X186" s="2"/>
-      <c r="Y186" s="2"/>
-      <c r="Z186" s="2"/>
-      <c r="AA186" s="2"/>
-    </row>
-    <row r="187" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
-      <c r="V187" s="2"/>
-      <c r="W187" s="2"/>
-      <c r="X187" s="2"/>
-      <c r="Y187" s="2"/>
-      <c r="Z187" s="2"/>
-      <c r="AA187" s="2"/>
-    </row>
-    <row r="188" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2"/>
-      <c r="V188" s="2"/>
-      <c r="W188" s="2"/>
-      <c r="X188" s="2"/>
-      <c r="Y188" s="2"/>
-      <c r="Z188" s="2"/>
-      <c r="AA188" s="2"/>
-    </row>
-    <row r="189" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
-      <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2"/>
-      <c r="V189" s="2"/>
-      <c r="W189" s="2"/>
-      <c r="X189" s="2"/>
-      <c r="Y189" s="2"/>
-      <c r="Z189" s="2"/>
-      <c r="AA189" s="2"/>
-    </row>
-    <row r="190" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2"/>
-      <c r="V190" s="2"/>
-      <c r="W190" s="2"/>
-      <c r="X190" s="2"/>
-      <c r="Y190" s="2"/>
-      <c r="Z190" s="2"/>
-      <c r="AA190" s="2"/>
-    </row>
-    <row r="191" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
-      <c r="V191" s="2"/>
-      <c r="W191" s="2"/>
-      <c r="X191" s="2"/>
-      <c r="Y191" s="2"/>
-      <c r="Z191" s="2"/>
-      <c r="AA191" s="2"/>
-    </row>
-    <row r="192" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2"/>
-      <c r="V192" s="2"/>
-      <c r="W192" s="2"/>
-      <c r="X192" s="2"/>
-      <c r="Y192" s="2"/>
-      <c r="Z192" s="2"/>
-      <c r="AA192" s="2"/>
-    </row>
-    <row r="193" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="2"/>
-      <c r="X193" s="2"/>
-      <c r="Y193" s="2"/>
-      <c r="Z193" s="2"/>
-      <c r="AA193" s="2"/>
-    </row>
-    <row r="194" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2"/>
-      <c r="V194" s="2"/>
-      <c r="W194" s="2"/>
-      <c r="X194" s="2"/>
-      <c r="Y194" s="2"/>
-      <c r="Z194" s="2"/>
-      <c r="AA194" s="2"/>
-    </row>
-    <row r="195" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2"/>
-      <c r="V195" s="2"/>
-      <c r="W195" s="2"/>
-      <c r="X195" s="2"/>
-      <c r="Y195" s="2"/>
-      <c r="Z195" s="2"/>
-      <c r="AA195" s="2"/>
-    </row>
-    <row r="196" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
-      <c r="V196" s="2"/>
-      <c r="W196" s="2"/>
-      <c r="X196" s="2"/>
-      <c r="Y196" s="2"/>
-      <c r="Z196" s="2"/>
-      <c r="AA196" s="2"/>
-    </row>
-    <row r="197" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2"/>
-      <c r="V197" s="2"/>
-      <c r="W197" s="2"/>
-      <c r="X197" s="2"/>
-      <c r="Y197" s="2"/>
-      <c r="Z197" s="2"/>
-      <c r="AA197" s="2"/>
-    </row>
-    <row r="198" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
-      <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
-      <c r="V198" s="2"/>
-      <c r="W198" s="2"/>
-      <c r="X198" s="2"/>
-      <c r="Y198" s="2"/>
-      <c r="Z198" s="2"/>
-      <c r="AA198" s="2"/>
-    </row>
-    <row r="199" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
-      <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
-      <c r="AA199" s="2"/>
-    </row>
-    <row r="200" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
-      <c r="X200" s="2"/>
-      <c r="Y200" s="2"/>
-      <c r="Z200" s="2"/>
-      <c r="AA200" s="2"/>
-    </row>
-    <row r="201" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2"/>
-      <c r="V201" s="2"/>
-      <c r="W201" s="2"/>
-      <c r="X201" s="2"/>
-      <c r="Y201" s="2"/>
-      <c r="Z201" s="2"/>
-      <c r="AA201" s="2"/>
-    </row>
-    <row r="202" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="2"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="2"/>
-      <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
-      <c r="Z202" s="2"/>
-      <c r="AA202" s="2"/>
-    </row>
-    <row r="203" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
-      <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
-      <c r="Z203" s="2"/>
-      <c r="AA203" s="2"/>
-    </row>
-    <row r="204" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2"/>
-      <c r="V204" s="2"/>
-      <c r="W204" s="2"/>
-      <c r="X204" s="2"/>
-      <c r="Y204" s="2"/>
-      <c r="Z204" s="2"/>
-      <c r="AA204" s="2"/>
-    </row>
-    <row r="205" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2"/>
-      <c r="V205" s="2"/>
-      <c r="W205" s="2"/>
-      <c r="X205" s="2"/>
-      <c r="Y205" s="2"/>
-      <c r="Z205" s="2"/>
-      <c r="AA205" s="2"/>
-    </row>
-    <row r="206" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="2"/>
-      <c r="V206" s="2"/>
-      <c r="W206" s="2"/>
-      <c r="X206" s="2"/>
-      <c r="Y206" s="2"/>
-      <c r="Z206" s="2"/>
-      <c r="AA206" s="2"/>
-    </row>
-    <row r="207" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="2"/>
-      <c r="V207" s="2"/>
-      <c r="W207" s="2"/>
-      <c r="X207" s="2"/>
-      <c r="Y207" s="2"/>
-      <c r="Z207" s="2"/>
-      <c r="AA207" s="2"/>
-    </row>
-    <row r="208" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
-      <c r="Q208" s="2"/>
-      <c r="R208" s="2"/>
-      <c r="S208" s="2"/>
-      <c r="T208" s="2"/>
-      <c r="U208" s="2"/>
-      <c r="V208" s="2"/>
-      <c r="W208" s="2"/>
-      <c r="X208" s="2"/>
-      <c r="Y208" s="2"/>
-      <c r="Z208" s="2"/>
-      <c r="AA208" s="2"/>
-    </row>
-    <row r="209" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
-      <c r="AA209" s="2"/>
-    </row>
-    <row r="210" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
-      <c r="AA210" s="2"/>
-    </row>
-    <row r="211" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
-      <c r="AA211" s="2"/>
-    </row>
-    <row r="212" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-      <c r="Z212" s="2"/>
-      <c r="AA212" s="2"/>
-    </row>
-    <row r="213" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-      <c r="Z213" s="2"/>
-      <c r="AA213" s="2"/>
-    </row>
-    <row r="214" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
-      <c r="AA214" s="2"/>
-    </row>
-    <row r="215" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
-      <c r="W215" s="2"/>
-      <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
-      <c r="Z215" s="2"/>
-      <c r="AA215" s="2"/>
-    </row>
-    <row r="216" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
-      <c r="Z216" s="2"/>
-      <c r="AA216" s="2"/>
-    </row>
-    <row r="217" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
-      <c r="AA217" s="2"/>
-    </row>
-    <row r="218" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
-      <c r="Z218" s="2"/>
-      <c r="AA218" s="2"/>
-    </row>
-    <row r="219" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
-      <c r="X219" s="2"/>
-      <c r="Y219" s="2"/>
-      <c r="Z219" s="2"/>
-      <c r="AA219" s="2"/>
-    </row>
-    <row r="220" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
-      <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
-      <c r="Z220" s="2"/>
-      <c r="AA220" s="2"/>
-    </row>
-    <row r="221" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2"/>
-      <c r="V221" s="2"/>
-      <c r="W221" s="2"/>
-      <c r="X221" s="2"/>
-      <c r="Y221" s="2"/>
-      <c r="Z221" s="2"/>
-      <c r="AA221" s="2"/>
-    </row>
-    <row r="222" ht="21.05" customHeight="1" spans="1:27">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2"/>
-      <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
-      <c r="Y222" s="2"/>
-      <c r="Z222" s="2"/>
-      <c r="AA222" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A66:A79"/>
+    <mergeCell ref="A22:A35"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>